--- a/biology/Zoologie/Chingkankousaurus/Chingkankousaurus.xlsx
+++ b/biology/Zoologie/Chingkankousaurus/Chingkankousaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chingkankousaurus fragilis
 Chingkankousaurus est un genre éteint douteux de dinosaures théropodes de la super-famille des Tyrannosauroidea. Il a été découvert dans retrouvé dans les strates du groupe de Wangshi, un ensemble de formations géologiques datant du Crétacé supérieur, au Shandong, en Chine.
-L'espèce type et seule espèce, Chingkankousaurus fragilis, a été nommée et décrite par Yang Zhongjian en 1958[1]. Elle est basée sur l'holotype IVPP V636, il n'est constitué que constitué d'un fragment de côte.
-Selon Molnar et ses collègues (1990), le fossile appartiendrait à un membre des Tyrannosauridae alors que Chure (2001) le classe chez les Coelurosauria. Selon Brusatte et ses collègues (2013), le genre appartiendrait bien à la super-famille des Tyrannosauroidea, mais serait un nomen dubium[2].
+L'espèce type et seule espèce, Chingkankousaurus fragilis, a été nommée et décrite par Yang Zhongjian en 1958. Elle est basée sur l'holotype IVPP V636, il n'est constitué que constitué d'un fragment de côte.
+Selon Molnar et ses collègues (1990), le fossile appartiendrait à un membre des Tyrannosauridae alors que Chure (2001) le classe chez les Coelurosauria. Selon Brusatte et ses collègues (2013), le genre appartiendrait bien à la super-famille des Tyrannosauroidea, mais serait un nomen dubium.
 </t>
         </is>
       </c>
